--- a/medicine/Premiers secours et secourisme/Ministère_des_Situations_d'urgence_(Ukraine)/Ministère_des_Situations_d'urgence_(Ukraine).xlsx
+++ b/medicine/Premiers secours et secourisme/Ministère_des_Situations_d'urgence_(Ukraine)/Ministère_des_Situations_d'urgence_(Ukraine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_des_Situations_d%27urgence_(Ukraine)</t>
+          <t>Ministère_des_Situations_d'urgence_(Ukraine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le service d'urgence de l'État[2] (ukrainien : Державна служба України з надзвичайних ситуацій) jusqu'au 24 décembre 2012, maintenant le ministère des situations d'urgence (ukrainien : Міністерство надзвичайних ситуацій України), est le principal organe exécutif chargé de mener à bien la politique de l'État dans le domaine de la protection civile, du sauvetage, de la création et de la gestion du système de documentation du fonds d'assurance, de l'utilisation des déchets radioactifs, de la protection de la population et du territoire dans les situations d'urgence, de la prévention des urgences et de la réponse apportée, la liquidation judiciaire et la catastrophe de Tchernobyl. Il est abrégé en ДСНС [Ukrainien]. Le ministère gère son domaine d'opérations et est entièrement responsable de leur développement. Il administre aussi directement la Zone d'exclusion de Tchernobyl située juste au nord de Kiev.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le service d'urgence de l'État (ukrainien : Державна служба України з надзвичайних ситуацій) jusqu'au 24 décembre 2012, maintenant le ministère des situations d'urgence (ukrainien : Міністерство надзвичайних ситуацій України), est le principal organe exécutif chargé de mener à bien la politique de l'État dans le domaine de la protection civile, du sauvetage, de la création et de la gestion du système de documentation du fonds d'assurance, de l'utilisation des déchets radioactifs, de la protection de la population et du territoire dans les situations d'urgence, de la prévention des urgences et de la réponse apportée, la liquidation judiciaire et la catastrophe de Tchernobyl. Il est abrégé en ДСНС [Ukrainien]. Le ministère gère son domaine d'opérations et est entièrement responsable de leur développement. Il administre aussi directement la Zone d'exclusion de Tchernobyl située juste au nord de Kiev.
 Placée sous la tutelle du ministère de l'Intérieur, la devise de l'agence est « Prévenir, sauver, aider » (ukrainien : Запобігти. Врятувати. Допомогти).
 En 2022, il est fortement mobilisé dans le cadre des bombardements de l'armée russe liés à l'invasion de l'Ukraine par la Russie.
 Le 18 janvier 2023, un hélicoptère transportant le ministre de l'Intérieur Denys Monastyrsky s'est écrasé sur une école maternelle à Brovary, en Ukraine. Le ministre, son premier adjoint Levgueni Lenine, 42 ans et un autre haut responsable du ministère ainsi que plusieurs enfants et civils y ont perdu la vie.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_des_Situations_d%27urgence_(Ukraine)</t>
+          <t>Ministère_des_Situations_d'urgence_(Ukraine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,6 +527,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
